--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>SCRUM Master</t>
   </si>
@@ -94,6 +95,30 @@
   </si>
   <si>
     <t>(Dalam Satuan Menit)</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>Sentinel STR Heroes Part. 2</t>
+  </si>
+  <si>
+    <t>Sentinel AGI Heroes Part. 2</t>
+  </si>
+  <si>
+    <t>Sentinel INT Heroes Part. 2</t>
+  </si>
+  <si>
+    <t>Kamis</t>
+  </si>
+  <si>
+    <t>Jumat</t>
+  </si>
+  <si>
+    <t>Sabtu</t>
+  </si>
+  <si>
+    <t>Burndown Chart Sprint 2</t>
   </si>
 </sst>
 </file>
@@ -826,7 +851,397 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$H$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$H$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1391862080"/>
+        <c:axId val="1391862624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1391862080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391862624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1391862624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391862080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
 </cs:colorStyle>
@@ -1381,7 +1796,593 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1872,7 +2873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:W2"/>
     </sheetView>
   </sheetViews>
@@ -2042,4 +3043,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>30</v>
+      </c>
+      <c r="I8" s="10">
+        <v>40</v>
+      </c>
+      <c r="J8" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="25">
+        <v>20</v>
+      </c>
+      <c r="J9" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="9">
+        <v>20</v>
+      </c>
+      <c r="I10" s="10">
+        <v>40</v>
+      </c>
+      <c r="J10" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="9">
+        <v>20</v>
+      </c>
+      <c r="I11" s="10">
+        <v>40</v>
+      </c>
+      <c r="J11" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="16">
+        <f>SUM(H8:H11)</f>
+        <v>90</v>
+      </c>
+      <c r="I12" s="17">
+        <f>SUM(I8:I11)</f>
+        <v>140</v>
+      </c>
+      <c r="J12" s="18">
+        <f>SUM(J8:J11)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="47" spans="3:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 3" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>SCRUM Master</t>
   </si>
@@ -119,6 +120,24 @@
   </si>
   <si>
     <t>Burndown Chart Sprint 2</t>
+  </si>
+  <si>
+    <t>Burndown Chart Sprint 3</t>
+  </si>
+  <si>
+    <t>Minggu</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Scourge STR Heroes Part. 1</t>
+  </si>
+  <si>
+    <t>Scourge AGI Heroes Part. 1</t>
+  </si>
+  <si>
+    <t>Scourge INT Heroes Part. 1</t>
   </si>
 </sst>
 </file>
@@ -1235,6 +1254,390 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 3'!$H$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$H$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1254479296"/>
+        <c:axId val="1254479840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1254479296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254479840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1254479840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254479296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
@@ -1242,6 +1645,12 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
 </cs:colorStyle>
@@ -1797,6 +2206,555 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2383,6 +3341,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3049,7 +4044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -3219,4 +4214,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="9">
+        <v>60</v>
+      </c>
+      <c r="I9" s="25">
+        <v>20</v>
+      </c>
+      <c r="J9" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="9">
+        <v>40</v>
+      </c>
+      <c r="I10" s="10">
+        <v>30</v>
+      </c>
+      <c r="J10" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="9">
+        <v>40</v>
+      </c>
+      <c r="I11" s="10">
+        <v>40</v>
+      </c>
+      <c r="J11" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="16">
+        <f>SUM(H8:H11)</f>
+        <v>140</v>
+      </c>
+      <c r="I12" s="17">
+        <f>SUM(I8:I11)</f>
+        <v>90</v>
+      </c>
+      <c r="J12" s="18">
+        <f>SUM(J8:J11)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="47" spans="3:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -5,21 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Semester 4\Teknik Kolaborasi PL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\C\MoonLightTrinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint 3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint 4" sheetId="6" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>SCRUM Master</t>
   </si>
@@ -138,6 +136,21 @@
   </si>
   <si>
     <t>Scourge INT Heroes Part. 1</t>
+  </si>
+  <si>
+    <t>Scourge INT Heroes Part. 2</t>
+  </si>
+  <si>
+    <t>Scourge AGI Heroes Part. 2</t>
+  </si>
+  <si>
+    <t>Scourge STR Heroes Part. 2</t>
+  </si>
+  <si>
+    <t>Decompile</t>
+  </si>
+  <si>
+    <t>Burndown Chart Sprint 4</t>
   </si>
 </sst>
 </file>
@@ -394,26 +407,11 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,15 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,15 +429,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -467,6 +447,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -525,7 +538,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -620,7 +632,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -684,11 +695,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1254487456"/>
-        <c:axId val="1254478752"/>
+        <c:axId val="328620432"/>
+        <c:axId val="328620824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1254487456"/>
+        <c:axId val="328620432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,7 +760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254478752"/>
+        <c:crossAx val="328620824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -757,7 +768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1254478752"/>
+        <c:axId val="328620824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,7 +829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254487456"/>
+        <c:crossAx val="328620432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,7 +920,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1004,7 +1014,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1068,11 +1077,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1391862080"/>
-        <c:axId val="1391862624"/>
+        <c:axId val="328611808"/>
+        <c:axId val="328612200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1391862080"/>
+        <c:axId val="328611808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1391862624"/>
+        <c:crossAx val="328612200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1141,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1391862624"/>
+        <c:axId val="328612200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1391862080"/>
+        <c:crossAx val="328611808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,11 +1461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1254479296"/>
-        <c:axId val="1254479840"/>
+        <c:axId val="328611024"/>
+        <c:axId val="328613768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1254479296"/>
+        <c:axId val="328611024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254479840"/>
+        <c:crossAx val="328613768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1525,7 +1534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1254479840"/>
+        <c:axId val="328613768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1595,391 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254479296"/>
+        <c:crossAx val="328611024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 4'!$H$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$H$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="327506128"/>
+        <c:axId val="327513576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="327506128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327513576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="327513576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327506128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,6 +2049,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -2755,6 +3154,555 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3414,48 +4362,41 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sprint 1"/>
-      <sheetName val="Sprint 2"/>
-      <sheetName val="Sprint 3"/>
-      <sheetName val="Sprint 4"/>
-      <sheetName val="Sprint 5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="12">
-          <cell r="H12" t="str">
-            <v>Senin</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>Selasa</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>Rabu</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21">
-            <v>260</v>
-          </cell>
-          <cell r="I21">
-            <v>130</v>
-          </cell>
-          <cell r="J21">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3729,129 +4670,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="3" customWidth="1"/>
-    <col min="4" max="24" width="10.7109375" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="24" width="10.7109375" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G9" s="4"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3875,30 +4816,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -3907,122 +4848,122 @@
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="5">
         <v>20</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="9">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="14">
         <v>30</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="15">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="9">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="5">
         <v>20</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="9">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <v>15</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="8">
         <f>SUM(H8:H11)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="9">
         <f>SUM(I8:I11)</f>
         <v>85</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="10">
         <f>SUM(J8:J11)</f>
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="15"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="47" spans="3:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="3:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4051,30 +4992,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -4083,133 +5024,133 @@
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="4">
         <v>30</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="5">
         <v>40</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="9">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="4">
         <v>20</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="14">
         <v>20</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="15">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="9">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="4">
         <v>20</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="5">
         <v>40</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="9">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="4">
         <v>20</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <v>40</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="8">
         <f>SUM(H8:H11)</f>
         <v>90</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="9">
         <f>SUM(I8:I11)</f>
         <v>140</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="10">
         <f>SUM(J8:J11)</f>
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="15"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="47" spans="3:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="3:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4220,37 +5161,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -4259,133 +5200,309 @@
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="9">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="4">
         <v>60</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="14">
         <v>20</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="9">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="4">
         <v>40</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="5">
         <v>30</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="9">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="4">
         <v>40</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <v>40</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="8">
         <f>SUM(H8:H11)</f>
         <v>140</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="9">
         <f>SUM(I8:I11)</f>
         <v>90</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="10">
         <f>SUM(J8:J11)</f>
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="15"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="47" spans="3:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="3:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="4">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="4">
+        <v>30</v>
+      </c>
+      <c r="I9" s="14">
+        <v>30</v>
+      </c>
+      <c r="J9" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="4">
+        <v>20</v>
+      </c>
+      <c r="I10" s="5">
+        <v>40</v>
+      </c>
+      <c r="J10" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="4">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5">
+        <v>40</v>
+      </c>
+      <c r="J11" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H8:H11)</f>
+        <v>100</v>
+      </c>
+      <c r="I12" s="9">
+        <f>SUM(I8:I11)</f>
+        <v>130</v>
+      </c>
+      <c r="J12" s="10">
+        <f>SUM(J8:J11)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="47" spans="3:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="6">
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
